--- a/docs/数据表.xlsx
+++ b/docs/数据表.xlsx
@@ -16,165 +16,548 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="136">
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病案号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">identity </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要，涉及个人敏感信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marriage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入院时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出院时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现病史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既往史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>present_illness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history_illness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>family_illness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体格检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical_exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整形外科情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入院诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查房记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病例特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ill_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴别诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antidiastole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treat_plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术前诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术后诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>narcosis_way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>narcosis_doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgery_doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgery_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before_diag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_diag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admits_diag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assist_exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>later_diag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>治疗过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出院医嘱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出院诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_diag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgery_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outpatient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入院病情描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>个人信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病案号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medical _id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">identity </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要，涉及个人敏感信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婚姻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marriage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入院时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出院时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以剥离</t>
+    <t>tbl_user_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院病历记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_hospitalized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次病程记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_clinical_course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_surgery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_after_surgery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术后病程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出院记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_appendix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,13 +603,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -624,186 +1025,820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="D21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="F23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="F24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="F25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="F26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="F27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="F33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/数据表.xlsx
+++ b/docs/数据表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -485,79 +485,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outpatient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入院病情描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院病历记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_hospitalized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次病程记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_clinical_course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_surgery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_after_surgery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术后病程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出院记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_appendix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>record_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outpatient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入院病情描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_user_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院病历记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_hospitalized</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次病程记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_clinical_course</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_surgery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_after_surgery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术后病程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出院记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_appendix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,74 +662,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -746,7 +678,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1027,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1042,16 +974,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>124</v>
-      </c>
-      <c r="G1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1358,28 +1290,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
         <v>126</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
         <v>127</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>128</v>
-      </c>
-      <c r="G19" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1590,10 +1522,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1610,10 +1542,10 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" t="s">
         <v>132</v>
-      </c>
-      <c r="G32" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1645,7 +1577,7 @@
         <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>95</v>
@@ -1710,7 +1642,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F37" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>102</v>
@@ -1770,10 +1702,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
         <v>134</v>
-      </c>
-      <c r="B43" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">

--- a/docs/数据表.xlsx
+++ b/docs/数据表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="166">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,34 +501,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_user_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>住院病历记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_hospitalized</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首次病程记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_clinical_course</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手术记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_surgery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,27 +521,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>术后病程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出院记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_leave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_appendix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>record_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始执行医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始执行护士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始执行日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止执行医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止执行护士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止执行日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_execute_doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_execute_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_execute_nurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop__execute_doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop__execute_nurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop__execute_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_temp_medical_orders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行护士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核对人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 个人信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 住院病历记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 首次病程记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 手术记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 术后病程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 出院记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 附录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_long_medical_orders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 长期医嘱记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 临时医嘱记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,33 +1077,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1302,16 +1422,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1522,10 +1642,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1542,10 +1662,10 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1558,7 +1678,9 @@
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1699,7 @@
         <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>95</v>
@@ -1700,81 +1822,342 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="F49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="F50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="F51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="F52" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="F53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="F54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/数据表.xlsx
+++ b/docs/数据表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="170">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,18 +605,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stop__execute_doctor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stop__execute_nurse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stop__execute_datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_temp_medical_orders</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,6 +666,34 @@
   </si>
   <si>
     <t>8. 临时医嘱记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县/区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器械护士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instrument_nurses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_execute_doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_execute_nurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_execute_datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1094,13 +1110,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
         <v>122</v>
@@ -1336,13 +1352,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="4" t="s">
@@ -1358,94 +1374,94 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" t="s">
-        <v>123</v>
-      </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1</v>
@@ -1462,15 +1478,17 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1483,14 +1501,14 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
+      <c r="A22" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="1" t="s">
@@ -1506,10 +1524,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>56</v>
@@ -1528,10 +1546,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>56</v>
@@ -1550,10 +1568,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>56</v>
@@ -1574,10 +1592,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>56</v>
@@ -1596,10 +1614,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>56</v>
@@ -1617,6 +1635,16 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="F28" s="4" t="s">
         <v>70</v>
       </c>
@@ -1630,168 +1658,168 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1"/>
       <c r="F36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F38" s="4" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F39" s="4" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>56</v>
@@ -1800,10 +1828,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>56</v>
@@ -1812,88 +1840,74 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F41" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" t="s">
-        <v>150</v>
-      </c>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>5</v>
+      <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1901,11 +1915,11 @@
       <c r="D48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>94</v>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>4</v>
@@ -1916,243 +1930,269 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I49" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D50" s="1"/>
       <c r="F50" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D51" s="1"/>
       <c r="F51" s="4" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="1"/>
       <c r="F52" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>144</v>
       </c>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D53" s="1"/>
       <c r="F53" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D54" s="1"/>
       <c r="F54" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="F55" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
